--- a/data/trans_camb/P0901-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P0901-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-1.467049646124931</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-0.8226234540747848</v>
+        <v>-0.8226234540747855</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.628685735035559</v>
+        <v>-1.185769191978902</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.219301822117809</v>
+        <v>-3.017315927551945</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.281527625788677</v>
+        <v>-3.425893727721986</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.701143833106991</v>
+        <v>-3.311714967479168</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.706483527297288</v>
+        <v>-4.536536368062707</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-3.725556309574456</v>
+        <v>-3.639122161908752</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.650556054755984</v>
+        <v>-1.655619766485687</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.274866970828499</v>
+        <v>-3.119300399038463</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-3.02184012022949</v>
+        <v>-2.872270522260191</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.257487349391445</v>
+        <v>3.534619678270835</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.026422844948289</v>
+        <v>1.152054675451812</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.516200751913913</v>
+        <v>1.852499868778472</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.324937227490346</v>
+        <v>2.675559520134634</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6983465568539707</v>
+        <v>0.9903302077838615</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.217282837322972</v>
+        <v>4.901673840724287</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.098667012393224</v>
+        <v>2.131983490229743</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1934887716996598</v>
+        <v>0.2364529859069199</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.686143865216505</v>
+        <v>1.996375535298442</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.3557058824322487</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.1994561004898791</v>
+        <v>-0.1994561004898792</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3959443962819372</v>
+        <v>-0.3293416723519128</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7593333658250002</v>
+        <v>-0.7588431838918792</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.9035963694567811</v>
+        <v>-0.9119386722920678</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5402103731626131</v>
+        <v>-0.4918462039850464</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6908989428793572</v>
+        <v>-0.695386817744313</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6353669385871977</v>
+        <v>-0.599198095637256</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3301737870141794</v>
+        <v>-0.3296931241240527</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6452548847282327</v>
+        <v>-0.6103845903530244</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.658594223980085</v>
+        <v>-0.6101022074437356</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.579368835322589</v>
+        <v>1.712139727420777</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5661833613556456</v>
+        <v>0.6166243552966179</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.003546581820673</v>
+        <v>0.9940512799950267</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.6162476113038855</v>
+        <v>0.7282493757595088</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.276235665570223</v>
+        <v>0.2787071327952457</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.294925087956038</v>
+        <v>1.254089249910139</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6297345437435953</v>
+        <v>0.6776479000891897</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.09342994246642169</v>
+        <v>0.1248911131184005</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.4657792349268436</v>
+        <v>0.5930470277550511</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.420977634059836</v>
+        <v>-1.583788123938605</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.6290302949041185</v>
+        <v>-0.7406746616135467</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.724747749867347</v>
+        <v>0.9578737394357588</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.603320871418153</v>
+        <v>-6.38439234527369</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-5.134710579277245</v>
+        <v>-5.607357101251523</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-5.904311773817867</v>
+        <v>-5.830464284693473</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.929367162375709</v>
+        <v>-2.825065615837294</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.043584532042682</v>
+        <v>-2.067892343269108</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.606618101118406</v>
+        <v>-1.429346465332184</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.321305233662705</v>
+        <v>2.426784738261471</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.566057448737282</v>
+        <v>3.601192471861917</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.057944219711107</v>
+        <v>7.385724123659128</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.4675261773061523</v>
+        <v>-0.5999119762234105</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7466147864215423</v>
+        <v>0.600835204228152</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1155666354975342</v>
+        <v>0.04617891130904284</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4687526879866526</v>
+        <v>0.4733414891554252</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.589176792865564</v>
+        <v>1.615596079134875</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.696341393673774</v>
+        <v>2.80781582878476</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3728760033225918</v>
+        <v>-0.3823318979222671</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1909597021753865</v>
+        <v>-0.1733425780747523</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.1048177297744092</v>
+        <v>0.1979519073400862</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.635733594534922</v>
+        <v>-0.6263678524056678</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5156385889266047</v>
+        <v>-0.5529024936958705</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6013794193247172</v>
+        <v>-0.6188907427482045</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4625345172669349</v>
+        <v>-0.4583466581794475</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3257924813742569</v>
+        <v>-0.3375502632497067</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2611784207917076</v>
+        <v>-0.2399223009262697</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.058397861844417</v>
+        <v>1.166802296474717</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.601814923672948</v>
+        <v>1.662182890667408</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.227981204916411</v>
+        <v>3.08210459318594</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.03551248443608072</v>
+        <v>-0.08431893815904232</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1317421752451633</v>
+        <v>0.09599479360392188</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02438430610562331</v>
+        <v>0.02487198740531107</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.125886461376846</v>
+        <v>0.1082021935771323</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3693216515129679</v>
+        <v>0.3569357865139151</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.5510649217017309</v>
+        <v>0.6239788225019635</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.11692998827815</v>
+        <v>-0.8104166332796739</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.021212610696943</v>
+        <v>-2.864252654870914</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.2925920853359522</v>
+        <v>-0.3367972514159677</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.4506219811388353</v>
+        <v>-0.6263547341245704</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.246614830867883</v>
+        <v>-3.429919169570586</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.786564813116302</v>
+        <v>-1.969760488222382</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.02703177304767329</v>
+        <v>0.02522970568938978</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.475424333399368</v>
+        <v>-2.368692615643816</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.2976813408476891</v>
+        <v>-0.3623569346942888</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.124946622223921</v>
+        <v>4.178504187477018</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.576671139187115</v>
+        <v>1.648970831410983</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.25815567786553</v>
+        <v>5.260878746877031</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.031355010413801</v>
+        <v>6.028292035921892</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.762715293390913</v>
+        <v>2.736963554075493</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.204384903818699</v>
+        <v>4.291544357933714</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.222222367140549</v>
+        <v>4.399446884096589</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.439271423599833</v>
+        <v>1.599505078885481</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.004221417606418</v>
+        <v>4.004929380186858</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1974157962668674</v>
+        <v>-0.1433276395963361</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.481894254757591</v>
+        <v>-0.478428720571539</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.08854322202342731</v>
+        <v>-0.07044877704941699</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.04799185145517701</v>
+        <v>-0.06136046964813129</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3076730181228847</v>
+        <v>-0.3053938597489146</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1706087721854473</v>
+        <v>-0.1825803674005858</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.008899017183421608</v>
+        <v>4.932643018334173e-05</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3156684784631324</v>
+        <v>-0.2925507515005558</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.03717324981273676</v>
+        <v>-0.04570432032315639</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.07875580413328</v>
+        <v>1.150017828992022</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4865563436288236</v>
+        <v>0.5270183565518596</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.386038065680775</v>
+        <v>1.420140453788424</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.8025130853534652</v>
+        <v>0.8245641109948862</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.361917955555666</v>
+        <v>0.3668712395709532</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5349077747863759</v>
+        <v>0.5796109389534414</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6824246440639312</v>
+        <v>0.7096252159239518</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.244369846960678</v>
+        <v>0.2726441359964424</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.6639950929366576</v>
+        <v>0.6690913875379714</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>3.168900303960373</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6.395397292443331</v>
+        <v>6.395397292443327</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>1.449313883271369</v>
@@ -1297,7 +1297,7 @@
         <v>-0.846669796752561</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>2.036111126990423</v>
+        <v>2.03611112699042</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>1.570341705604145</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.524246115503853</v>
+        <v>-1.664151901523759</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.2065538574432108</v>
+        <v>-0.1133184094652519</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.095330504499358</v>
+        <v>2.798935580894764</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.819004547626897</v>
+        <v>-2.639457570336259</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.728887453916678</v>
+        <v>-4.864636927245935</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.557809307690216</v>
+        <v>-2.117045439112085</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.340830851232865</v>
+        <v>-1.209302850150205</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.597583866976281</v>
+        <v>-1.499109375255363</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.645660534498578</v>
+        <v>1.622254912687497</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.199911782835006</v>
+        <v>5.173833015578449</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.636207298627077</v>
+        <v>6.533039410543615</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.06765538112192</v>
+        <v>10.03783974260921</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.129379051699487</v>
+        <v>6.058329633637129</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.686950022473849</v>
+        <v>3.595287368714485</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.56834827907937</v>
+        <v>5.301929136228753</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.606563314751356</v>
+        <v>4.398626976757279</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.050234879260071</v>
+        <v>3.965907317654357</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.064754942781656</v>
+        <v>6.905925626087647</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.4411589484788916</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.8903362283480445</v>
+        <v>0.8903362283480442</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1020092297962047</v>
@@ -1402,7 +1402,7 @@
         <v>-0.05959242842791863</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1433106590926689</v>
+        <v>0.1433106590926687</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.1469875265317406</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1718715314495991</v>
+        <v>-0.195427070876636</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.02974087802483922</v>
+        <v>-0.02336023720356083</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3249851653004048</v>
+        <v>0.3117892320179111</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1716383940866649</v>
+        <v>-0.1656588302660038</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2909627864724965</v>
+        <v>-0.2975504676185023</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.08862597862929888</v>
+        <v>-0.1228134041746555</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1115225007911348</v>
+        <v>-0.102069499182687</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1260470466244019</v>
+        <v>-0.1275425275878831</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1345892195180131</v>
+        <v>0.1336577186994728</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.9022541426042249</v>
+        <v>0.9032284855881619</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.178250883686402</v>
+        <v>1.159560278418961</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.88894857203002</v>
+        <v>1.814403067378254</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5053581599113823</v>
+        <v>0.5367167372839423</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3151018650259979</v>
+        <v>0.2965454876391183</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4848238285341827</v>
+        <v>0.4466958515088498</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5009479997965514</v>
+        <v>0.4672483855801125</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4377688694735534</v>
+        <v>0.4294388894503335</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.8090758935607567</v>
+        <v>0.7532717909296551</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>6.354798627231705</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>6.976648838067353</v>
+        <v>6.976648838067359</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>5.938993557018477</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.466677326550469</v>
+        <v>-4.41969394845534</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-7.037880318868277</v>
+        <v>-7.815833838251911</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.6054376506334391</v>
+        <v>-0.7332545514955576</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5.163662860375786</v>
+        <v>4.609476380622324</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.9177713894100403</v>
+        <v>0.6880739817866637</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>2.611701425351767</v>
+        <v>1.96849556001092</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.323304306119244</v>
+        <v>2.00677739112491</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.652100908966511</v>
+        <v>-1.685007810814181</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.87834454376598</v>
+        <v>2.258839185407299</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.919806329281448</v>
+        <v>5.374760332591185</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.654308272918113</v>
+        <v>2.596203845558056</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9.718243689343495</v>
+        <v>8.965541745664277</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>17.12256068717533</v>
+        <v>16.2696782383103</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>12.55925155966267</v>
+        <v>12.11825068657313</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>11.72380707876347</v>
+        <v>11.47356853665427</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>10.009661688525</v>
+        <v>9.694225920185866</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>5.561207733644553</v>
+        <v>5.812546054692931</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>8.811483411886744</v>
+        <v>8.635945298405298</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.3531641994337287</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3877231594826542</v>
+        <v>0.3877231594826545</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.3524919555657318</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2480382227837147</v>
+        <v>-0.2385649997343331</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4052148723480956</v>
+        <v>-0.4155603060648078</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.03299791072170063</v>
+        <v>-0.03997832291495143</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.2519914617883798</v>
+        <v>0.2306364262805818</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.04357279822039688</v>
+        <v>0.02991199517997531</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.123909630625633</v>
+        <v>0.0893299189909032</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1236747337764413</v>
+        <v>0.109443492522241</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.09022203036750269</v>
+        <v>-0.09059788128203625</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.09658263561972782</v>
+        <v>0.1134161737767285</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4338037709435116</v>
+        <v>0.4171730789401605</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2111271332203522</v>
+        <v>0.2037815030702641</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.7873654250436319</v>
+        <v>0.7125488323151028</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.132433716145007</v>
+        <v>1.082288078222208</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.8274083231762485</v>
+        <v>0.8124368692040483</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.7888998056318899</v>
+        <v>0.7378327087654327</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6441516735218797</v>
+        <v>0.6432767657246246</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.3667250405574131</v>
+        <v>0.3863813256684213</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.6200183177530729</v>
+        <v>0.5673356741720762</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>0.8594893326437064</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-1.075913762743294</v>
+        <v>-1.075913762743288</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>5.855096036469265</v>
@@ -1725,7 +1725,7 @@
         <v>4.240256835901423</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-3.873109123903645</v>
+        <v>-3.87310912390364</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>6.722910164465073</v>
@@ -1734,7 +1734,7 @@
         <v>2.512521356050645</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-2.841183037914965</v>
+        <v>-2.841183037914963</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.07536749409178486</v>
+        <v>0.7820668210652615</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-5.583646067526439</v>
+        <v>-5.328676443907885</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-7.26686514654191</v>
+        <v>-6.157971517511573</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.7678529136524119</v>
+        <v>-1.193124601041463</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-2.496673654947175</v>
+        <v>-3.988925239272461</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-9.765487462012274</v>
+        <v>-9.604677348901484</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>1.6481972350388</v>
+        <v>1.980948020635112</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-2.085387724410231</v>
+        <v>-2.217900633279631</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-6.921624326604642</v>
+        <v>-6.958444661380622</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>13.69880853291041</v>
+        <v>14.63697967920256</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>7.323122076226617</v>
+        <v>6.865356175589059</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4.698107557301608</v>
+        <v>4.608707843899369</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>13.30192123975221</v>
+        <v>12.556895295802</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>11.00507515380006</v>
+        <v>11.12113629753939</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1.985428762084852</v>
+        <v>1.62924340983659</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>12.28084931287112</v>
+        <v>11.37680746657095</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>7.187653981711001</v>
+        <v>7.257392829306647</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>1.09560044382208</v>
+        <v>1.140258817352669</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>0.04686776332082748</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.05866933965401191</v>
+        <v>-0.0586693396540116</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.1735246229427921</v>
@@ -1830,7 +1830,7 @@
         <v>0.125666421873771</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.1147854443642815</v>
+        <v>-0.1147854443642813</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.2522612814015118</v>
@@ -1839,7 +1839,7 @@
         <v>0.09427641323784232</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.1066086644484706</v>
+        <v>-0.1066086644484705</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.00603261003559547</v>
+        <v>0.0345679103488609</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.2693891510799349</v>
+        <v>-0.2558852622869529</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.3185321349558521</v>
+        <v>-0.2881422287875532</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.02106361279178568</v>
+        <v>-0.03272768333200294</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.07269567192985452</v>
+        <v>-0.1030068840396086</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.2636766827812237</v>
+        <v>-0.2563378030138058</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.05428436555101263</v>
+        <v>0.06604975061132509</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.07345795641257807</v>
+        <v>-0.07957057268414949</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.2351976177322016</v>
+        <v>-0.2382307587658741</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.8946874492377047</v>
+        <v>0.9195398352605185</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.4913814687892603</v>
+        <v>0.4392613013616449</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.3111493528071873</v>
+        <v>0.3127857085653122</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.4459786557368502</v>
+        <v>0.4172796848607784</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.3598896040591449</v>
+        <v>0.3615296109106669</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.06654398442021858</v>
+        <v>0.0595145900489353</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4926821284846119</v>
+        <v>0.4599118887767623</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.2928472127115507</v>
+        <v>0.2914140058299566</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.05159452034204663</v>
+        <v>0.04916068084689954</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>1.881766545555769</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-0.8467815784311106</v>
+        <v>-0.846781578431105</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>16.65886794345182</v>
@@ -1939,7 +1939,7 @@
         <v>12.53293889317503</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>11.10222233494255</v>
+        <v>11.10222233494254</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>14.67794104449777</v>
@@ -1948,7 +1948,7 @@
         <v>8.320591971539987</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>6.188896525443354</v>
+        <v>6.188896525443344</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>2.591546214113721</v>
+        <v>3.059741485927447</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-6.215806050198599</v>
+        <v>-7.300284314147682</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-8.100975722796024</v>
+        <v>-9.06704558047992</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>8.910884439984891</v>
+        <v>8.55309764186422</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>4.585520583069734</v>
+        <v>4.61694938642465</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>4.401878005803214</v>
+        <v>4.325659464895502</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>8.540609659457058</v>
+        <v>8.996454129510594</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>2.376066506503518</v>
+        <v>2.796828996263328</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>0.7257214767104584</v>
+        <v>1.374328835715639</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>20.52628263307463</v>
+        <v>21.48981744654907</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>10.42313372198796</v>
+        <v>9.963462990697222</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>6.889409768951037</v>
+        <v>6.545636533901089</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>23.97132010787322</v>
+        <v>24.73307218474598</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>20.81538687092632</v>
+        <v>19.86488465673698</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>17.77823075342481</v>
+        <v>18.05660577697218</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>20.86313771520084</v>
+        <v>20.79472901584129</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>15.14668559282152</v>
+        <v>14.81946773239506</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>10.94681754281411</v>
+        <v>11.36259618123134</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.05198758190797272</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.02339404256644817</v>
+        <v>-0.02339404256644802</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.366941556458019</v>
@@ -2044,7 +2044,7 @@
         <v>0.2760605414524929</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2445464336205471</v>
+        <v>0.2445464336205468</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.3507499137854009</v>
@@ -2053,7 +2053,7 @@
         <v>0.1988321732464765</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.1478923315024324</v>
+        <v>0.1478923315024321</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.06476208146891992</v>
+        <v>0.06805931541773413</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1549096618174787</v>
+        <v>-0.173912565639585</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.1999595897410249</v>
+        <v>-0.220923240654077</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.1766747686990534</v>
+        <v>0.1686850122905632</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.09199216816552895</v>
+        <v>0.09734917589388091</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.09004914056945605</v>
+        <v>0.08231574895005227</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1930515212703392</v>
+        <v>0.1994366660545829</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.05380298972795823</v>
+        <v>0.06289691944971706</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.01873231139711937</v>
+        <v>0.03092727224808348</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.6521665444400148</v>
+        <v>0.6792820549509317</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.3410406969809309</v>
+        <v>0.3177064851207228</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.2269112395539682</v>
+        <v>0.2090895353638529</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.5914817922500094</v>
+        <v>0.6181063793675672</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.5152328845869545</v>
+        <v>0.5017206327291504</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.4502076475395201</v>
+        <v>0.4452767833444493</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.5469066438882182</v>
+        <v>0.5339471987071762</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.3966067780541569</v>
+        <v>0.3890454318358046</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.2857390315733156</v>
+        <v>0.3047353189198948</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>1.432501151726029</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>4.577255793165451</v>
+        <v>4.577255793165445</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>4.539120319192929</v>
@@ -2162,7 +2162,7 @@
         <v>2.31113824761065</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>4.527968514509811</v>
+        <v>4.527968514509809</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>1.298563550338757</v>
+        <v>1.370748874796823</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.04520759448077152</v>
+        <v>-0.001038307285822596</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>3.158952383124215</v>
+        <v>3.013543053369837</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>2.734067556078144</v>
+        <v>2.559005441067073</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>1.240724440680478</v>
+        <v>1.163472067881485</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>2.654553886944555</v>
+        <v>2.679763048753291</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>2.480290386325827</v>
+        <v>2.568800356026741</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>1.123178262466168</v>
+        <v>1.147597053400478</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>3.377992086614249</v>
+        <v>3.296423788582751</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>4.589483463392089</v>
+        <v>4.252033678890869</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>2.880439138748419</v>
+        <v>2.71797167514588</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>6.219878075873453</v>
+        <v>6.042993123968861</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>6.515797794292186</v>
+        <v>6.351285710606258</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>4.885440220556901</v>
+        <v>4.875078660117615</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>6.138716462890463</v>
+        <v>6.179164516565421</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>4.921512337162006</v>
+        <v>5.03244144115583</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>3.522529759956926</v>
+        <v>3.516458996867702</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>5.672135739036706</v>
+        <v>5.646887019802486</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>0.1583459769145086</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.5059612268255935</v>
+        <v>0.5059612268255929</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.2778056588334943</v>
@@ -2267,7 +2267,7 @@
         <v>0.181277673565847</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.3551581560031468</v>
+        <v>0.3551581560031465</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.1321063499317429</v>
+        <v>0.1368898742608085</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.001769762652516745</v>
+        <v>-0.00325898643605706</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.3226525077794412</v>
+        <v>0.313848512525878</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.1581256258926594</v>
+        <v>0.1510773848745415</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.07318052425151643</v>
+        <v>0.06688011093801362</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1525761493434209</v>
+        <v>0.1538504734362491</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1869863638686634</v>
+        <v>0.1925119948409242</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.08245589237367171</v>
+        <v>0.08587799296129782</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.2500797885093081</v>
+        <v>0.244851017617582</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.5589044816303463</v>
+        <v>0.4977652752547382</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.3574697548471603</v>
+        <v>0.3239161893156578</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.7497653457567955</v>
+        <v>0.7116276469722552</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.4142930705614236</v>
+        <v>0.4150155942082365</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.3163766365427613</v>
+        <v>0.3141891671263219</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.4082985330093878</v>
+        <v>0.4005734000930192</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.4046125580960713</v>
+        <v>0.4142407936385257</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.2862185249708309</v>
+        <v>0.2891754327408091</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.4626344465479046</v>
+        <v>0.4629170530699095</v>
       </c>
     </row>
     <row r="52">
